--- a/projects/pilot_exp/read_processing_stats/sample_UMI_stats.xlsx
+++ b/projects/pilot_exp/read_processing_stats/sample_UMI_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -40,6 +40,18 @@
     <t>barcode</t>
   </si>
   <si>
+    <t>plot_group</t>
+  </si>
+  <si>
+    <t>hue_name</t>
+  </si>
+  <si>
+    <t>hue_value</t>
+  </si>
+  <si>
+    <t>hue_order</t>
+  </si>
+  <si>
     <t>P5_index_seq</t>
   </si>
   <si>
@@ -179,6 +191,24 @@
   </si>
   <si>
     <t>l4</t>
+  </si>
+  <si>
+    <t>rich-vs-depletion</t>
+  </si>
+  <si>
+    <t>NaCl-control</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>No Leu</t>
+  </si>
+  <si>
+    <t>No Arg</t>
+  </si>
+  <si>
+    <t>5 μM UCPH</t>
   </si>
   <si>
     <t>AGGCTATA</t>
@@ -560,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,997 +654,1201 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M2">
-        <v>51693</v>
-      </c>
-      <c r="N2">
-        <v>23948</v>
-      </c>
-      <c r="O2">
-        <v>22695</v>
-      </c>
-      <c r="P2">
-        <v>48.65681881525631</v>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
       </c>
       <c r="Q2">
-        <v>47660</v>
+        <v>51689</v>
       </c>
       <c r="R2">
-        <v>48585</v>
+        <v>23947</v>
       </c>
       <c r="S2">
-        <v>98.63230998394367</v>
+        <v>22696</v>
       </c>
       <c r="T2">
-        <v>98.09612020170835</v>
+        <v>48.65896275968527</v>
+      </c>
+      <c r="U2">
+        <v>47656</v>
+      </c>
+      <c r="V2">
+        <v>48582</v>
+      </c>
+      <c r="W2">
+        <v>98.63220414401516</v>
+      </c>
+      <c r="X2">
+        <v>98.09394425919065</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3">
-        <v>65953</v>
-      </c>
-      <c r="N3">
-        <v>23761</v>
-      </c>
-      <c r="O3">
-        <v>38168</v>
-      </c>
-      <c r="P3">
-        <v>61.63186875292674</v>
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
       </c>
       <c r="Q3">
-        <v>59565</v>
+        <v>65956</v>
       </c>
       <c r="R3">
-        <v>61205</v>
+        <v>23759</v>
       </c>
       <c r="S3">
-        <v>98.67936257638014</v>
+        <v>38172</v>
       </c>
       <c r="T3">
-        <v>97.32048035291234</v>
+        <v>61.63633721399621</v>
+      </c>
+      <c r="U3">
+        <v>59567</v>
+      </c>
+      <c r="V3">
+        <v>61206</v>
+      </c>
+      <c r="W3">
+        <v>98.67790648310995</v>
+      </c>
+      <c r="X3">
+        <v>97.3221579583701</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>68008</v>
-      </c>
-      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4">
+        <v>68005</v>
+      </c>
+      <c r="R4">
         <v>18013</v>
       </c>
-      <c r="O4">
-        <v>45818</v>
-      </c>
-      <c r="P4">
-        <v>71.78016951011264</v>
-      </c>
-      <c r="Q4">
-        <v>61376</v>
-      </c>
-      <c r="R4">
-        <v>63004</v>
-      </c>
       <c r="S4">
-        <v>98.69868250794023</v>
+        <v>45814</v>
       </c>
       <c r="T4">
-        <v>97.41603707701098</v>
+        <v>71.77840099017658</v>
+      </c>
+      <c r="U4">
+        <v>61373</v>
+      </c>
+      <c r="V4">
+        <v>63002</v>
+      </c>
+      <c r="W4">
+        <v>98.70009558120726</v>
+      </c>
+      <c r="X4">
+        <v>97.41436779784769</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
       </c>
       <c r="M5">
-        <v>68032</v>
-      </c>
-      <c r="N5">
-        <v>706</v>
-      </c>
-      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5">
+        <v>68034</v>
+      </c>
+      <c r="R5">
+        <v>707</v>
+      </c>
+      <c r="S5">
         <v>62570</v>
       </c>
-      <c r="P5">
-        <v>98.88425311334471</v>
-      </c>
-      <c r="Q5">
+      <c r="T5">
+        <v>98.8826903930338</v>
+      </c>
+      <c r="U5">
         <v>61406</v>
       </c>
-      <c r="R5">
-        <v>63086</v>
-      </c>
-      <c r="S5">
-        <v>98.8005644402634</v>
-      </c>
-      <c r="T5">
-        <v>97.33696858256982</v>
+      <c r="V5">
+        <v>63088</v>
+      </c>
+      <c r="W5">
+        <v>98.80206955345857</v>
+      </c>
+      <c r="X5">
+        <v>97.33388283033223</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>48353</v>
-      </c>
-      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6">
+        <v>48356</v>
+      </c>
+      <c r="R6">
         <v>24810</v>
       </c>
-      <c r="O6">
-        <v>20616</v>
-      </c>
-      <c r="P6">
-        <v>45.38370096420552</v>
-      </c>
-      <c r="Q6">
-        <v>44720</v>
-      </c>
-      <c r="R6">
-        <v>45655</v>
-      </c>
       <c r="S6">
-        <v>98.7860112092321</v>
+        <v>20618</v>
       </c>
       <c r="T6">
-        <v>97.95203154090461</v>
+        <v>45.38610548560359</v>
+      </c>
+      <c r="U6">
+        <v>44719</v>
+      </c>
+      <c r="V6">
+        <v>45657</v>
+      </c>
+      <c r="W6">
+        <v>98.78608652494003</v>
+      </c>
+      <c r="X6">
+        <v>97.94555051799286</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M7">
-        <v>79937</v>
-      </c>
-      <c r="N7">
-        <v>31832</v>
-      </c>
-      <c r="O7">
-        <v>43593</v>
-      </c>
-      <c r="P7">
-        <v>57.79648657606894</v>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
       </c>
       <c r="Q7">
-        <v>70765</v>
+        <v>79934</v>
       </c>
       <c r="R7">
-        <v>73277</v>
+        <v>31830</v>
       </c>
       <c r="S7">
-        <v>98.7415089382889</v>
+        <v>43595</v>
       </c>
       <c r="T7">
-        <v>96.5719120597186</v>
+        <v>57.79913821677163</v>
+      </c>
+      <c r="U7">
+        <v>70763</v>
+      </c>
+      <c r="V7">
+        <v>73274</v>
+      </c>
+      <c r="W7">
+        <v>98.74146170590737</v>
+      </c>
+      <c r="X7">
+        <v>96.57313644676148</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>63899</v>
-      </c>
-      <c r="N8">
-        <v>16997</v>
-      </c>
-      <c r="O8">
-        <v>42567</v>
-      </c>
-      <c r="P8">
-        <v>71.46430729971124</v>
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
       </c>
       <c r="Q8">
-        <v>58054</v>
+        <v>63896</v>
       </c>
       <c r="R8">
-        <v>59413</v>
+        <v>16989</v>
       </c>
       <c r="S8">
-        <v>98.68229549758212</v>
+        <v>42570</v>
       </c>
       <c r="T8">
-        <v>97.7126218167741</v>
+        <v>71.47534377675917</v>
+      </c>
+      <c r="U8">
+        <v>58050</v>
+      </c>
+      <c r="V8">
+        <v>59410</v>
+      </c>
+      <c r="W8">
+        <v>98.68223362964818</v>
+      </c>
+      <c r="X8">
+        <v>97.71082309375527</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>79838</v>
-      </c>
-      <c r="N9">
-        <v>943</v>
-      </c>
-      <c r="O9">
-        <v>73530</v>
-      </c>
-      <c r="P9">
-        <v>98.73376928551288</v>
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
       </c>
       <c r="Q9">
-        <v>70998</v>
+        <v>79851</v>
       </c>
       <c r="R9">
-        <v>73228</v>
+        <v>944</v>
       </c>
       <c r="S9">
-        <v>98.79255492372053</v>
+        <v>73543</v>
       </c>
       <c r="T9">
-        <v>96.9547167750041</v>
+        <v>98.73266476029374</v>
+      </c>
+      <c r="U9">
+        <v>71000</v>
+      </c>
+      <c r="V9">
+        <v>73238</v>
+      </c>
+      <c r="W9">
+        <v>98.79149916719891</v>
+      </c>
+      <c r="X9">
+        <v>96.94420929025915</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
       <c r="M10">
-        <v>47018</v>
-      </c>
-      <c r="N10">
-        <v>20844</v>
-      </c>
-      <c r="O10">
-        <v>22685</v>
-      </c>
-      <c r="P10">
-        <v>52.11468216591238</v>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
       </c>
       <c r="Q10">
-        <v>43745</v>
+        <v>47015</v>
       </c>
       <c r="R10">
-        <v>44496</v>
+        <v>20841</v>
       </c>
       <c r="S10">
-        <v>98.89404058020332</v>
+        <v>22683</v>
       </c>
       <c r="T10">
-        <v>98.31220783890687</v>
+        <v>52.11607389026744</v>
+      </c>
+      <c r="U10">
+        <v>43744</v>
+      </c>
+      <c r="V10">
+        <v>44494</v>
+      </c>
+      <c r="W10">
+        <v>98.89609699032223</v>
+      </c>
+      <c r="X10">
+        <v>98.31437946689441</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
       <c r="M11">
-        <v>65407</v>
-      </c>
-      <c r="N11">
-        <v>21451</v>
-      </c>
-      <c r="O11">
-        <v>39214</v>
-      </c>
-      <c r="P11">
-        <v>64.6402373691585</v>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
       </c>
       <c r="Q11">
-        <v>59130</v>
+        <v>65405</v>
       </c>
       <c r="R11">
-        <v>60816</v>
+        <v>21454</v>
       </c>
       <c r="S11">
-        <v>98.83040041585764</v>
+        <v>39213</v>
       </c>
       <c r="T11">
-        <v>97.22770323599053</v>
+        <v>64.63645804143934</v>
+      </c>
+      <c r="U11">
+        <v>59126</v>
+      </c>
+      <c r="V11">
+        <v>60813</v>
+      </c>
+      <c r="W11">
+        <v>98.82883571592386</v>
+      </c>
+      <c r="X11">
+        <v>97.22592208902702</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
       <c r="M12">
-        <v>44814</v>
-      </c>
-      <c r="N12">
-        <v>11213</v>
-      </c>
-      <c r="O12">
-        <v>30457</v>
-      </c>
-      <c r="P12">
-        <v>73.0909527237821</v>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
       </c>
       <c r="Q12">
-        <v>41742</v>
+        <v>44819</v>
       </c>
       <c r="R12">
-        <v>42449</v>
+        <v>11215</v>
       </c>
       <c r="S12">
-        <v>98.7771678493328</v>
+        <v>30456</v>
       </c>
       <c r="T12">
-        <v>98.33447195458079</v>
+        <v>73.08679897290682</v>
+      </c>
+      <c r="U12">
+        <v>41747</v>
+      </c>
+      <c r="V12">
+        <v>42453</v>
+      </c>
+      <c r="W12">
+        <v>98.77507307168834</v>
+      </c>
+      <c r="X12">
+        <v>98.33698442984006</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
       <c r="M13">
-        <v>69136</v>
-      </c>
-      <c r="N13">
-        <v>651</v>
-      </c>
-      <c r="O13">
-        <v>62669</v>
-      </c>
-      <c r="P13">
-        <v>98.97188881869867</v>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
       </c>
       <c r="Q13">
-        <v>62508</v>
+        <v>69146</v>
       </c>
       <c r="R13">
-        <v>64097</v>
+        <v>650</v>
       </c>
       <c r="S13">
-        <v>98.88769960657255</v>
+        <v>62680</v>
       </c>
       <c r="T13">
-        <v>97.52094481801021</v>
+        <v>98.97363019106268</v>
+      </c>
+      <c r="U13">
+        <v>62516</v>
+      </c>
+      <c r="V13">
+        <v>64106</v>
+      </c>
+      <c r="W13">
+        <v>98.88786046915223</v>
+      </c>
+      <c r="X13">
+        <v>97.51973294231429</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>83531</v>
-      </c>
-      <c r="N14">
-        <v>13943</v>
-      </c>
-      <c r="O14">
-        <v>61747</v>
-      </c>
-      <c r="P14">
-        <v>81.57880829700093</v>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>69</v>
       </c>
       <c r="Q14">
-        <v>74173</v>
+        <v>83522</v>
       </c>
       <c r="R14">
-        <v>76286</v>
+        <v>13942</v>
       </c>
       <c r="S14">
-        <v>98.6950952341047</v>
+        <v>61737</v>
       </c>
       <c r="T14">
-        <v>97.23016018666597</v>
+        <v>81.57745213335271</v>
+      </c>
+      <c r="U14">
+        <v>74174</v>
+      </c>
+      <c r="V14">
+        <v>76278</v>
+      </c>
+      <c r="W14">
+        <v>98.69495462273413</v>
+      </c>
+      <c r="X14">
+        <v>97.24166863315766</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>54680</v>
-      </c>
-      <c r="N15">
-        <v>6015</v>
-      </c>
-      <c r="O15">
-        <v>44931</v>
-      </c>
-      <c r="P15">
-        <v>88.19338122718172</v>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>70</v>
       </c>
       <c r="Q15">
+        <v>54677</v>
+      </c>
+      <c r="R15">
+        <v>6014</v>
+      </c>
+      <c r="S15">
+        <v>44929</v>
+      </c>
+      <c r="T15">
+        <v>88.19464892134347</v>
+      </c>
+      <c r="U15">
         <v>50069</v>
       </c>
-      <c r="R15">
-        <v>51253</v>
-      </c>
-      <c r="S15">
-        <v>98.6356986100951</v>
-      </c>
-      <c r="T15">
-        <v>97.68989132343474</v>
+      <c r="V15">
+        <v>51251</v>
+      </c>
+      <c r="W15">
+        <v>98.6374526766282</v>
+      </c>
+      <c r="X15">
+        <v>97.69370353749196</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16">
         <v>87084</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>10944</v>
       </c>
-      <c r="O16">
-        <v>69524</v>
-      </c>
-      <c r="P16">
-        <v>86.39956255902968</v>
-      </c>
-      <c r="Q16">
-        <v>76833</v>
-      </c>
-      <c r="R16">
-        <v>79262</v>
-      </c>
       <c r="S16">
-        <v>98.68058426346975</v>
+        <v>69522</v>
       </c>
       <c r="T16">
-        <v>96.93547980116576</v>
+        <v>86.39922451718738</v>
+      </c>
+      <c r="U16">
+        <v>76831</v>
+      </c>
+      <c r="V16">
+        <v>79263</v>
+      </c>
+      <c r="W16">
+        <v>98.68173258003766</v>
+      </c>
+      <c r="X16">
+        <v>96.93173359575086</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>120990</v>
-      </c>
-      <c r="N17">
-        <v>1464</v>
-      </c>
-      <c r="O17">
-        <v>109736</v>
-      </c>
-      <c r="P17">
-        <v>98.68345323741006</v>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
       </c>
       <c r="Q17">
-        <v>102618</v>
+        <v>120994</v>
       </c>
       <c r="R17">
-        <v>106802</v>
+        <v>1466</v>
       </c>
       <c r="S17">
-        <v>98.70898421357137</v>
+        <v>109733</v>
       </c>
       <c r="T17">
-        <v>96.08247036572349</v>
+        <v>98.68164282052896</v>
+      </c>
+      <c r="U17">
+        <v>102630</v>
+      </c>
+      <c r="V17">
+        <v>106810</v>
+      </c>
+      <c r="W17">
+        <v>98.71315933021472</v>
+      </c>
+      <c r="X17">
+        <v>96.08650875386201</v>
       </c>
     </row>
   </sheetData>
